--- a/Excel/Question-Chapitre-II.xlsx
+++ b/Excel/Question-Chapitre-II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB38780-5C1F-4647-9187-7B44F80ADB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CDA00-2261-48A4-89FA-54C5B3E75FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Proposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Proposition relative aux enzymes : </t>
-  </si>
-  <si>
     <t>Justification</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Les coenzymes sont des petites molécules organiques de nature non protéique</t>
   </si>
   <si>
-    <t xml:space="preserve">Proposition relative aux interactions cellulaires : </t>
-  </si>
-  <si>
     <t>Les récepteurs aux hormones peptidiques sont généralement membranaires.</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>Reponse</t>
+  </si>
+  <si>
+    <t>Proposition relative aux interactions cellulaires</t>
+  </si>
+  <si>
+    <t>Proposition relative aux enzymes</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E9"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,16 +529,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,16 +546,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,16 +563,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,16 +580,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,16 +597,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,16 +614,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,16 +631,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Question-Chapitre-II.xlsx
+++ b/Excel/Question-Chapitre-II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CDA00-2261-48A4-89FA-54C5B3E75FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0203F0B-456E-4016-BA18-46FBB9BA5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Proposition relative aux enzymes</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Dia 456 du chapitre II</t>
+  </si>
+  <si>
+    <t>Dia 453 du chapitre II</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E8E85-83FC-4805-A19D-447B6EDF704E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +499,7 @@
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,8 +555,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,8 +575,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -574,8 +595,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -591,8 +615,11 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -608,8 +635,11 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -625,8 +655,11 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -641,6 +674,9 @@
       </c>
       <c r="E9" t="s">
         <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Question-Chapitre-II.xlsx
+++ b/Excel/Question-Chapitre-II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0203F0B-456E-4016-BA18-46FBB9BA5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F4ADC-44AF-483D-A5C3-DB2C298A061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
   </bookViews>
@@ -107,13 +107,13 @@
     <t>Proposition relative aux enzymes</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>Dia 456 du chapitre II</t>
   </si>
   <si>
     <t>Dia 453 du chapitre II</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E8E85-83FC-4805-A19D-447B6EDF704E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Question-Chapitre-II.xlsx
+++ b/Excel/Question-Chapitre-II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F4ADC-44AF-483D-A5C3-DB2C298A061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F37AAFD-4EC9-4DE7-885A-B0B5BEAEA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Dia 447 du chapitre II</t>
+  </si>
+  <si>
+    <t>Dia 455 du chapitre II</t>
+  </si>
+  <si>
+    <t>Dia 346 du chapitre II</t>
+  </si>
+  <si>
+    <t>Dia 347 du chapitre II</t>
+  </si>
+  <si>
+    <t>Dia 381 du chapitre II</t>
   </si>
 </sst>
 </file>
@@ -488,7 +503,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Question-Chapitre-II.xlsx
+++ b/Excel/Question-Chapitre-II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F37AAFD-4EC9-4DE7-885A-B0B5BEAEA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAD646-630D-4779-981E-A000FA79913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
+    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{9A6A8161-5AC3-4DAB-AD64-65C5C36AD180}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -129,6 +129,233 @@
   </si>
   <si>
     <t>Dia 381 du chapitre II</t>
+  </si>
+  <si>
+    <t>propositions concernant la respiration cellulaire aérobie</t>
+  </si>
+  <si>
+    <t>Le transport des électrons le long de la chaîne de transport met en jeu des transporteurs de plus en plus électronégatifs jusqu'au dioxygène.</t>
+  </si>
+  <si>
+    <t>Le transport des électrons le long de la chaîne de transport d'électrons dans la mitochondrie implique des transporteurs successifs qui deviennent de plus en plus électronégatifs. Les électrons sont transférés de molécules ayant un potentiel redox plus faible à celles ayant un potentiel redox plus élevé. Cette séquence de transfert culmine avec la réduction de l'oxygène moléculaire (O₂) en eau (H₂O), car l'oxygène est le dernier accepteur d'électrons et a une très haute électronégativité.</t>
+  </si>
+  <si>
+    <t>La glycolyse se déroule dans le cytosol et la mitochondrie.</t>
+  </si>
+  <si>
+    <t>La glycolyse se déroule exclusivement dans le cytosol de la cellule. C'est le processus par lequel une molécule de glucose est décomposée en deux molécules de pyruvate, produisant de l'ATP et du NADH. La mitochondrie est impliquée dans les étapes ultérieures du métabolisme, telles que le cycle de Krebs (ou cycle de l'acide citrique) et la chaîne de transport des électrons, mais pas dans la glycolyse elle-même.</t>
+  </si>
+  <si>
+    <t>Dans la chaîne de transport des électrons, le passage des ions hydrogène (H⁺) de la matrice mitochondriale vers l'espace intermembranaire est un transport actif. Ce processus est alimenté par l'énergie libérée lors du transfert des électrons le long de la chaîne de transport des électrons. Les complexes protéiques de la chaîne de transport utilisent cette énergie pour pomper les protons contre leur gradient de concentration, créant ainsi un gradient électrochimique de protons à travers la membrane interne de la mitochondrie.</t>
+  </si>
+  <si>
+    <t>Dans la chaîne de transport des électrons, le passage de H+ de la matrice vers l'espace intermembranaire est un transport actif.</t>
+  </si>
+  <si>
+    <t>La chaîne de transport des électrons comporte plusieurs voies d'entrée pour les électrons.</t>
+  </si>
+  <si>
+    <t>La chaîne de transport des électrons comporte plusieurs voies d'entrée pour les électrons. Les deux principales sources d'électrons sont le NADH et le FADH2. Le NADH transfère ses électrons au complexe I (NADH déshydrogénase), tandis que le FADH2 transfère ses électrons au complexe II (succinate déshydrogénase). Ces électrons sont ensuite transférés à travers les complexes III et IV, aboutissant à la réduction de l'oxygène en eau.</t>
+  </si>
+  <si>
+    <t>propositions concernant les mitochondries</t>
+  </si>
+  <si>
+    <t>Les mitochondries proviennent de la fission ou de la fusion de mitochondries préexistantes.</t>
+  </si>
+  <si>
+    <t>Les mitochondries proviennent de la fission ou de la fusion de mitochondries préexistantes. Ces processus dynamiques permettent aux mitochondries de se diviser (fission) pour se multiplier en réponse aux besoins énergétiques de la cellule et de se fusionner (fusion) pour mélanger leurs contenus, maintenir leur fonction et réparer les dommages. Ce cycle de fission et fusion est essentiel pour la santé et la fonction des mitochondries.</t>
+  </si>
+  <si>
+    <t>La plupart des protéines mitochondriales sont synthétisées dans le cytosol puis importées.</t>
+  </si>
+  <si>
+    <t>La plupart des protéines mitochondriales sont synthétisées dans le cytosol puis importées dans la mitochondrie. Bien que les mitochondries possèdent leur propre ADN et leur propre machinerie de synthèse protéique, cela ne code que pour une petite fraction des protéines mitochondriales. La majorité des protéines nécessaires au fonctionnement mitochondrial sont codées par le génome nucléaire, traduites dans le cytosol, et ensuite importées dans la mitochondrie grâce à des complexes de translocation situés dans les membranes mitochondriales.</t>
+  </si>
+  <si>
+    <t>Les anomalies du génome mitochondrial sont fréquemment à l'origine de manifestations neurologiques et musculaires.</t>
+  </si>
+  <si>
+    <t>Les anomalies du génome mitochondrial sont fréquemment à l'origine de manifestations neurologiques et musculaires. Les mitochondries jouent un rôle crucial dans la production d'énergie cellulaire sous forme d'ATP, et les tissus avec de grandes exigences énergétiques, comme le cerveau et les muscles, sont particulièrement vulnérables aux dysfonctionnements mitochondriaux. Les mutations dans l'ADN mitochondrial peuvent entraîner des maladies mitochondriales, qui souvent se manifestent par des symptômes neurologiques (comme des troubles du mouvement, des crises d'épilepsie, et des troubles cognitifs) et musculaires (comme la faiblesse musculaire et la myopathie).</t>
+  </si>
+  <si>
+    <t>Les mitochondries sont détruites par autophagie dans le compartiment lysosomial.</t>
+  </si>
+  <si>
+    <t>Les mitochondries peuvent être détruites par autophagie, un processus qui implique leur dégradation dans les lysosomes. Ce type spécifique d'autophagie, appelé mitophagie, permet à la cellule de se débarrasser des mitochondries endommagées ou dysfonctionnelles pour maintenir la qualité et la fonction du pool mitochondrial. Au cours de la mitophagie, les mitochondries ciblées sont enveloppées par une membrane d'autophagie, formant un autophagosome, qui fusionne ensuite avec un lysosome où les enzymes lysosomales dégradent le contenu mitochondrial.</t>
+  </si>
+  <si>
+    <t>propositions concernant le cytosquelette des cellules animales</t>
+  </si>
+  <si>
+    <t>Les filaments intermédiaires sont présents dans le cytosol et le nucléoplasme</t>
+  </si>
+  <si>
+    <t>Le cytosquelette joue un rôle majeur dans le déplacement des organites et le mouvement des cellules dans leur environnement.</t>
+  </si>
+  <si>
+    <t>Les filaments intermédiaires sont présents à la fois dans le cytosol et le nucléoplasme. Dans le cytosol, ils contribuent à la structure et à la stabilité mécaniques des cellules, en formant un réseau qui aide à résister aux forces de déformation. Dans le nucléoplasme, un type spécifique de filaments intermédiaires, appelés lamines nucléaires, forme un réseau appelé la lamina nucléaire qui soutient la membrane nucléaire interne et joue un rôle crucial dans la régulation de l'ADN et d'autres processus nucléaires.</t>
+  </si>
+  <si>
+    <t>Le mouvement des cils est dépendant de la kinésine.</t>
+  </si>
+  <si>
+    <t>Le cytosquelette joue un rôle majeur dans le déplacement des organites et le mouvement des cellules dans leur environnement. Il est constitué de trois principaux types de filaments : les microfilaments (ou filaments d'actine), les microtubules et les filaments intermédiaires.</t>
+  </si>
+  <si>
+    <t>Le mouvement des cils est dépendant de la dyneine, pas de la kinésine. Les cils et les flagelles sont des structures cellulaires qui contiennent des microtubules organisés en neuf doublets périphériques et deux microtubules centraux (structure 9+2). La dyneine est une ATPase motrice qui se déplace le long des microtubules, permettant ainsi le mouvement des cils et des flagelles. Ce mouvement est essentiel pour la propulsion de certains types de cellules (comme les spermatozoïdes) ou pour le déplacement de fluides sur les surfaces épithéliales, comme dans les voies respiratoires où les cils aident à éliminer les particules étrangères.</t>
+  </si>
+  <si>
+    <t>Centrioles et corpuscules basaux ont la même structure.</t>
+  </si>
+  <si>
+    <t>Les centrioles et les corpuscules basaux ont une structure similaire. Les centrioles sont des structures constituées de neuf triplets de microtubules disposés en cercle, typiquement organisés en un motif 9+0 ou 9+2. Les corpuscules basaux, quant à eux, sont des structures similaires retrouvées à la base des cils et des flagelles, également constituées de neuf triplets de microtubules disposés en cercle, formant souvent un motif 9+0 ou 9+2. Ces structures fournissent un cadre structural et sont impliquées dans la formation et la fonction des cils, des flagelles et des centrioles au sein des cellules eucaryotes.</t>
+  </si>
+  <si>
+    <t>propositions concernant la division de cellules animales est fausse</t>
+  </si>
+  <si>
+    <t>Les 2 centrioles du centrosome sont répliqués avant que la prophase ne soit engagée</t>
+  </si>
+  <si>
+    <t>Avant le début de la prophase de la division cellulaire, les deux centrioles du centrosome subissent une réplication. Ce processus se produit généralement pendant la phase S du cycle cellulaire, lorsque l'ADN est également répliqué en préparation de la division cellulaire. Chaque centrosome d'une cellule en division aura donc deux paires de centrioles après la réplication, contribuant à la formation du fuseau mitotique pendant la prophase et jouant un rôle crucial dans la ségrégation des chromosomes lors de la mitose.</t>
+  </si>
+  <si>
+    <t>Les 3 types de microtubules impliqués dans l'appareil mitotique sont nucléés par les centrosomes dans lesquels ils sont ancrés et stabilisés par leur extrémité (-).</t>
+  </si>
+  <si>
+    <t>Les microtubules impliqués dans l'appareil mitotique sont effectivement nucléés par les centrosomes, mais ils ne sont pas stabilisés par leur extrémité (-). Au contraire, les microtubules du fuseau mitotique sont dynamiques et leurs extrémités (-) et (+) alternent entre des phases de croissance et de rétraction au cours de la division cellulaire. Les centrosomes, composés de paires de centrioles, agissent comme des centres d'organisation des microtubules (MTOC) et coordonnent la formation du fuseau mitotique lors de la division cellulaire.</t>
+  </si>
+  <si>
+    <t>Le raccourcissement des microtubules polaires permet la migration des chromosomes vers leur pôle.</t>
+  </si>
+  <si>
+    <t>Le raccourcissement des microtubules polaires du fuseau mitotique permet effectivement la migration des chromosomes vers leur pôle respectif pendant l'anaphase de la mitose. Les microtubules polaires s'étendent depuis chaque pôle du fuseau mitotique vers le centre de la cellule. Lorsque les chromosomes alignés au centre de la cellule commencent à se séparer vers les pôles opposés pendant l'anaphase, les microtubules polaires se raccourcissent en tirant sur les chromosomes vers leurs pôles respectifs. Ce processus contribue activement à la ségrégation correcte des chromosomes lors de la division cellulaire.</t>
+  </si>
+  <si>
+    <t>L'enveloppe nucléaire se reconstitue au cours de la télophase.</t>
+  </si>
+  <si>
+    <t>Pendant la télophase de la mitose, l'enveloppe nucléaire se reconstitue autour des chromosomes décondensés qui se trouvent aux pôles opposés de la cellule. L'enveloppe nucléaire est une membrane double lipidique perforée par des pores nucléaires, et elle est démantelée lors du début de la prophase pour permettre la ségrégation des chromosomes pendant la division cellulaire. À la fin de la télophase, la membrane nucléaire se réassemble autour des chromosomes et des nucléoles se reforment, marquant la fin de la division cellulaire et la restauration de la structure nucléaire fonctionnelle de la cellule fille.</t>
+  </si>
+  <si>
+    <t>propositions concernant les transports membranaires</t>
+  </si>
+  <si>
+    <t>L'entrée de glucose par le transporteur Na+/glucose dans les cellules épithéliales intestinales se fait contre le gradient de concentration de glucose.</t>
+  </si>
+  <si>
+    <t>L'entrée de glucose dans les cellules épithéliales intestinales par le transporteur Na^+/glucose (SGLT1) se fait effectivement contre le gradient de concentration de glucose. Ce processus est un exemple de transport actif secondaire, où l'énergie pour transporter le glucose contre son gradient de concentration est fournie par le gradient de sodium (Na^+) établi par la pompe sodium-potassium (Na^+/K^+ ATPase) présente dans la membrane basolatérale de la cellule épithéliale.</t>
+  </si>
+  <si>
+    <t>L'osmose correspond à un flux net d'eau d'un milieu hypotonique vers un milieu hypertonique.</t>
+  </si>
+  <si>
+    <t>L'osmose est le mouvement net d'eau à travers une membrane semi-perméable d'un milieu où la concentration en solutés (comme le sel ou le glucose) est plus faible (milieu hypotonique) vers un milieu où la concentration en solutés est plus élevée (milieu hypertonique). Ce flux net d'eau se produit pour équilibrer les concentrations de solutés de part et d'autre de la membrane, en réponse aux différences de pression osmotique.</t>
+  </si>
+  <si>
+    <t>Le transport de molécules par des transporteurs protéiques spécifiques nécessite toujours un apport d'énergie.</t>
+  </si>
+  <si>
+    <t>Le transport de molécules par des transporteurs protéiques spécifiques ne nécessite pas toujours un apport d'énergie. Il existe deux principaux types de transport à travers les transporteurs protéiques : le transport actif et le transport passif</t>
+  </si>
+  <si>
+    <t>Les canaux ioniques sont saturables</t>
+  </si>
+  <si>
+    <t>chatgpt a merdé mais c vraiment saturable tkt</t>
+  </si>
+  <si>
+    <t>propositions concernant les membranes cellulaires</t>
+  </si>
+  <si>
+    <t>Les membranes cellulaires impliquées dans un processus métabolique actif ont un rapport de masse protéines/ lipides élevé.</t>
+  </si>
+  <si>
+    <t>Les membranes cellulaires impliquées dans un processus métabolique actif ont généralement un rapport de masse protéines/lipides élevé. Cela est dû au fait que les protéines membranaires, telles que les transporteurs, les canaux ioniques, les enzymes et les récepteurs, sont essentielles pour faciliter et réguler les processus métaboliques. Par conséquent, ces membranes sont enrichies en protéines par rapport aux lipides, afin de soutenir les fonctions spécifiques et complexes nécessaires à l'activité métabolique cellulaire.</t>
+  </si>
+  <si>
+    <t>Un état de turgescence caractérise les cellules végétales car elles se trouvent le plus souvent en milieu hypotonique.</t>
+  </si>
+  <si>
+    <t>Un état de turgescence caractérise les cellules végétales lorsqu'elles se trouvent dans un milieu hypotonique. Dans un tel environnement, où la concentration en solutés à l'extérieur de la cellule est plus faible que celle à l'intérieur, l'eau entre dans la cellule par osmose. Cela crée une pression de turgescence contre la paroi cellulaire, qui maintient la cellule rigide et gonflée. Ce phénomène est crucial pour le soutien mécanique des plantes et pour maintenir leur forme et leur structure.</t>
+  </si>
+  <si>
+    <t>Les cellules animales exploitent la distribution asymétrique des phospholipides entre les 2 feuillets de leur membrane plasmique pour différencier les cellules mortes des cellules vivantes.</t>
+  </si>
+  <si>
+    <t>Les coudes formés par les doubles liaisons des acides gras insaturés des phospholipides membranaires rigidifient les membranes.</t>
+  </si>
+  <si>
+    <t>Les coudes formés par les doubles liaisons des acides gras insaturés des phospholipides membranaires en réalité fluidifient plutôt que de rigidifier les membranes. Les acides gras insaturés, grâce à leurs doubles liaisons, créent des coudes dans les chaînes hydrocarbonées des phospholipides. Cela empêche les phospholipides de s'empiler de manière compacte, ce qui diminue la viscosité de la membrane et la rend plus fluide. Ainsi, les acides gras insaturés sont souvent associés à une augmentation de la fluidité membranaire, ce qui est bénéfique pour de nombreux processus biologiques comme la mobilité des protéines membranaires et le fonctionnement des canaux ioniques.</t>
+  </si>
+  <si>
+    <t>Les cellules animales peuvent exploiter la distribution asymétrique des phospholipides entre les deux feuillets de leur membrane plasmique pour différencier les cellules mortes des cellules vivantes, en particulier lors de la reconnaissance des cellules apoptotiques (en apoptose). Normalement, les phospholipides comme la phosphatidylsérine sont localisés dans la face interne du feuillet lipidique de la membrane plasmique. Lorsqu'une cellule entre en apoptose, la phosphatidylsérine est exposée à la surface externe de la membrane plasmique, signalant aux cellules voisines ou aux phagocytes (cellules immunitaires spécialisées dans l'ingestion de cellules mortes) que la cellule est en train de mourir et doit être éliminée. Cette inversion dans la distribution des phospholipides est donc utilisée comme un marqueur pour différencier les cellules vivantes des cellules en processus de mort cellulaire programmée (apoptose).</t>
+  </si>
+  <si>
+    <t>propositions concernant la contraction musculaire</t>
+  </si>
+  <si>
+    <t>En l'absence d'ATP, la tête de la myosine reste fixée au filament d'actine.</t>
+  </si>
+  <si>
+    <t>En l'absence d'ATP, la tête de la myosine reste fixée au filament d'actine. L'interaction entre la myosine (présente dans les filaments épais des sarcomères musculaires) et l'actine (présente dans les filaments minces) est régulée par l'ATP. Lorsque l'ATP est présent et hydrolysé en ADP et phosphate inorganique (Pi), la myosine peut se lier à l'actine, former un pont transversal et effectuer un mouvement de type "coup de rame" qui génère la contraction musculaire. En l'absence d'ATP, la myosine reste attachée à l'actine dans une configuration non active, ce qui signifie qu'elle ne peut pas se détacher ni effectuer de mouvement contractile.</t>
+  </si>
+  <si>
+    <t>Lorsque la concentration en Ca++ intracellulaire est basse, le muscle est relâché.</t>
+  </si>
+  <si>
+    <t>Lorsque la concentration en Ca^2+ (calcium) intracellulaire est basse, le muscle est relâché. Le calcium joue un rôle crucial dans la contraction musculaire en régulant l'interaction entre l'actine et la myosine. En réponse à un signal nerveux, le calcium est libéré des réservoirs intracellulaires (comme le réticulum sarcoplasmique dans les muscles striés) dans le cytosol de la cellule musculaire. Le calcium se lie alors à la troponine C dans les filaments minces, provoquant un changement conformationnel qui permet à la myosine de se lier à l'actine et d'initier la contraction musculaire.</t>
+  </si>
+  <si>
+    <t>Les tubules transverses sont constitués par des replis de la membrane du réticulum sarcoplasmique.</t>
+  </si>
+  <si>
+    <t>Les tubules transverses (ou tubules T) ne sont pas constitués par des replis de la membrane du réticulum sarcoplasmique (RS). En réalité, les tubules transverses sont des invaginations de la membrane plasmique (sarcolemme) dans le cytoplasme des cellules musculaires striées (muscle squelettique et cardiaque). Ils pénètrent profondément dans le sarcoplasme et sont en contact direct avec le réticulum sarcoplasmique (RS).</t>
+  </si>
+  <si>
+    <t>Au repos, les molécules de tropomyosine bloquent les sites de fixation des molécules d'actine à la myosine.</t>
+  </si>
+  <si>
+    <t>Au repos, les molécules de tropomyosine bloquent effectivement les sites de fixation des molécules d'actine à la myosine dans les sarcomères des muscles striés. La tropomyosine est une protéine qui s'enroule le long des filaments minces d'actine, recouvrant les sites actifs où la myosine se lie normalement pour provoquer la contraction musculaire.</t>
+  </si>
+  <si>
+    <t>propositions concernant la communication cellulaire</t>
+  </si>
+  <si>
+    <t>Les récepteurs couplés aux protéines G (GPCR) lient une molécule de GTP lorsqu'ils sont activés par leur ligand.</t>
+  </si>
+  <si>
+    <t>Les récepteurs couplés aux protéines G (GPCR) ne lient pas directement une molécule de GTP lorsqu'ils sont activés par leur ligand. Voici comment cela se passe :
+    Activation par le ligand : Lorsqu'un ligand se lie au récepteur GPCR à la surface cellulaire, cela provoque un changement conformationnel dans le récepteur.
+    Activation de la protéine G : Ce changement conformationnel permet au récepteur GPCR d'agir comme un guanine nucléotide exchange factor (GEF), activant ainsi une protéine G associée située à proximité.
+    Échange GDP/GTP : La protéine G possède une activité GTPase intrinsèque, ce qui signifie qu'elle peut hydrolyser le GTP en GDP. Lorsque le récepteur GPCR est activé, il favorise l'échange du GDP lié à la protéine G par une molécule de GTP, formant ainsi une protéine G active (Gα-GTP).
+    Activation des voies de signalisation : La protéine Gα-GTP dissociée active ensuite différentes voies de signalisation cellulaires, affectant divers processus cellulaires comme la régulation de l'enzyme adénylate cyclase, la modulation des canaux ioniques, ou l'activation de cascades de kinase intracellulaires.
+Ainsi, bien que les GPCR jouent un rôle crucial dans l'activation des protéines G en favorisant l'échange GDP/GTP, ils ne lient pas directement une molécule de GTP eux-mêmes lorsqu'ils sont activés par leur ligand.</t>
+  </si>
+  <si>
+    <t>L'activation de la phospholipase C induit une augmentation du Ca++ cytosolique</t>
+  </si>
+  <si>
+    <t>L'activation de la phospholipase C (PLC) peut induire une augmentation du Ca^2+ cytosolique dans les cellules. La PLC est une enzyme clé dans la signalisation cellulaire qui est activée par divers récepteurs, notamment les récepteurs couplés aux protéines G (GPCR) et les récepteurs tyrosine kinase.
+Voici comment cela se produit :
+    Activation de la PLC : Lorsque la PLC est activée par un signal extracellulaire, elle hydrolyse le phosphatidylinositol 4,5-bisphosphate (PIP2) en deux seconds messagers : l'inositol 1,4,5-trisphosphate (IP3) et le diacylglycérol (DAG).
+    Augmentation du Ca^2+ cytosolique par l'IP3 : L'IP3 se lie à des récepteurs spécifiques, appelés récepteurs IP3 (IP3R), présents sur le réticulum endoplasmique (RE). Cela provoque la libération de Ca^2+ stocké à l'intérieur du RE vers le cytosol.
+    Effets cellulaires : Le Ca^2+ libéré dans le cytosol agit comme un second messager et peut activer divers processus cellulaires, tels que la contraction musculaire, la sécrétion de neurotransmetteurs, la régulation de l'expression génique, et d'autres réponses cellulaires importantes.
+Ainsi, l'activation de la PLC conduit généralement à une augmentation temporaire du Ca^2+ cytosolique, jouant un rôle crucial dans la signalisation cellulaire et la régulation de nombreuses fonctions cellulaires.</t>
+  </si>
+  <si>
+    <t>CREB est un facteur de transcription qui est activé lorsque la concentration d'AMPc est élevée.</t>
+  </si>
+  <si>
+    <t>CREB (cAMP response element-binding protein) est en effet un facteur de transcription activé lorsque la concentration d'AMPc (adénosine monophosphate cyclique) est élevée dans la cellule. L'AMPc est un second messager important dans la signalisation cellulaire, notamment via les récepteurs couplés aux protéines G (GPCR). Lorsqu'un ligand se lie à un GPCR activant l'adénylate cyclase, celle-ci convertit l'ATP en AMPc.
+L'AMPc active alors une kinase protéine dépendante (PKA) en se liant à ses sous-unités régulatrices et en libérant ses sous-unités catalytiques. Ces sous-unités catalytiques de la PKA phosphorylent à leur tour CREB, le rendant capable de se lier à des séquences spécifiques de l'ADN appelées "éléments de réponse cAMP" (CRE). Une fois lié à ces éléments CRE, CREB peut recruter des coactivateurs et initier la transcription de gènes cibles qui régulent divers processus cellulaires, comme la croissance cellulaire, la différenciation, et la réponse aux stimuli extracellulaires.</t>
+  </si>
+  <si>
+    <t>Une cellule cible reconnaît et répond biologiquement à une hormone grâce à la présence de récepteurs spécifiques.</t>
+  </si>
+  <si>
+    <t>Les cellules cibles répondent aux hormones grâce à des récepteurs spécifiques situés à leur surface ou à l'intérieur de la cellule. Lorsque l'hormone se lie à son récepteur, cela déclenche des réactions biochimiques à l'intérieur de la cellule, appelées transduction du signal, qui régulent divers processus physiologiques.</t>
   </si>
 </sst>
 </file>
@@ -164,8 +391,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,16 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E8E85-83FC-4805-A19D-447B6EDF704E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
   </cols>
@@ -694,6 +924,646 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
